--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:03:08+00:00</t>
+    <t>2024-12-23T15:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:06:22+00:00</t>
+    <t>2024-12-23T15:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-non-proprietary-name|https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-ucd)
+    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-nonproprietary-name|https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-ucd)
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="154.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:21:49+00:00</t>
+    <t>2024-12-23T15:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
+++ b/nr-update-is-links/ig/StructureDefinition-fr-medication-compound.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:22:28+00:00</t>
+    <t>2024-12-23T15:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
